--- a/biology/Botanique/Silene_italica/Silene_italica.xlsx
+++ b/biology/Botanique/Silene_italica/Silene_italica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Silene italica est une espèce de plantes herbacées du genre Silene, de la famille des Caryophyllacées.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des variétés et sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (14 juillet 2023)[2] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (14 juillet 2023) (Attention liste brute contenant possiblement des synonymes) :
 Silene italica subsp. coutinhoi (Rothm. &amp; P. Silva) Franco
 Silene italica subsp. nemoralis Nyman
 Silene italica subsp. peloponnesiaca Greuter
@@ -547,9 +561,11 @@
           <t>Statuts de protection, menaces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est évaluée comme non préoccupante aux échelons européen et français[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est évaluée comme non préoccupante aux échelons européen et français.
 En France, l'espèce a disparu en Limousin ; elle est considérée vulnérable (VU) en Bourgogne.
 </t>
         </is>
